--- a/src/main/resources/excel/5 Slang Sentences.xlsx
+++ b/src/main/resources/excel/5 Slang Sentences.xlsx
@@ -5,12 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1 Slang Sentences" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="2 Slang Sentences" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="3 Slang Sentences" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -576,10 +575,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -595,7 +594,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -606,7 +605,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -617,7 +616,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -628,7 +627,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -639,7 +638,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -650,7 +649,7 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -661,7 +660,7 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -672,7 +671,7 @@
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -683,7 +682,7 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -694,7 +693,7 @@
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -705,7 +704,7 @@
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -716,7 +715,7 @@
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -727,7 +726,7 @@
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -738,7 +737,7 @@
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -749,8 +748,188 @@
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -769,204 +948,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.63"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -983,7 +968,7 @@
       <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -994,7 +979,7 @@
       <c r="B2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1005,7 +990,7 @@
       <c r="B3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1016,7 +1001,7 @@
       <c r="B4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1027,7 +1012,7 @@
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1038,7 +1023,7 @@
       <c r="B6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1049,7 +1034,7 @@
       <c r="B7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1060,7 +1045,7 @@
       <c r="B8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1071,7 +1056,7 @@
       <c r="B9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>115</v>
       </c>
     </row>
